--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2153.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2153.xlsx
@@ -354,7 +354,7 @@
         <v>2.643790766544796</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.43136046962474</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2153.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2153.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.301840008494936</v>
+        <v>0.8570482730865479</v>
       </c>
       <c r="B1">
-        <v>2.643790766544796</v>
+        <v>1.321430206298828</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.43136046962474</v>
+        <v>1.723708391189575</v>
       </c>
       <c r="E1">
-        <v>0.7306226764607164</v>
+        <v>1.12641167640686</v>
       </c>
     </row>
   </sheetData>
